--- a/data/trans_dic/POLIPATOLOGIA_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,11</t>
+          <t>1,21; 3,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,67</t>
+          <t>1,64; 4,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,88</t>
+          <t>2,1; 5,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 18,37</t>
+          <t>6,64; 18,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,43</t>
+          <t>5,8; 10,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,9</t>
+          <t>7,4; 13,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,13; 12,5</t>
+          <t>7,29; 13,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,97; 26,61</t>
+          <t>13,72; 26,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 6,51</t>
+          <t>3,8; 6,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,88</t>
+          <t>4,66; 7,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,58</t>
+          <t>4,99; 8,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 19,43</t>
+          <t>11,36; 19,65</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,04</t>
+          <t>3,04; 6,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 9,23</t>
+          <t>5,18; 9,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,53</t>
+          <t>4,25; 8,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 15,4</t>
+          <t>7,89; 15,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 17,96</t>
+          <t>12,14; 17,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 14,08</t>
+          <t>9,01; 14,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 14,95</t>
+          <t>9,55; 14,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,28; 57,94</t>
+          <t>21,36; 58,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 11,07</t>
+          <t>7,57; 10,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,83; 10,84</t>
+          <t>7,65; 10,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 10,83</t>
+          <t>7,49; 10,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,98; 42,79</t>
+          <t>16,2; 42,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,98</t>
+          <t>7,43; 12,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,59</t>
+          <t>7,89; 12,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,72</t>
+          <t>7,05; 11,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,71; 18,45</t>
+          <t>11,91; 18,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,62; 21,87</t>
+          <t>15,68; 21,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,22; 26,77</t>
+          <t>20,29; 26,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,67; 19,44</t>
+          <t>13,84; 19,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,71; 29,11</t>
+          <t>19,61; 29,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,33; 16,3</t>
+          <t>12,34; 16,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 18,95</t>
+          <t>14,84; 19,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,06; 14,78</t>
+          <t>10,85; 14,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 22,58</t>
+          <t>16,97; 22,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 19,26</t>
+          <t>12,63; 19,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 19,84</t>
+          <t>13,58; 20,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,56; 25,69</t>
+          <t>18,65; 25,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 31,73</t>
+          <t>9,87; 31,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,95; 33,35</t>
+          <t>25,32; 33,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,34; 37,53</t>
+          <t>28,94; 36,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,31; 35,79</t>
+          <t>27,92; 35,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,02; 45,25</t>
+          <t>35,05; 45,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,9; 25,03</t>
+          <t>19,76; 25,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,16; 27,34</t>
+          <t>22,01; 27,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,27; 29,47</t>
+          <t>24,41; 29,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,34; 37,35</t>
+          <t>16,92; 37,08</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,24; 47,22</t>
+          <t>37,06; 46,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,64; 45,71</t>
+          <t>35,56; 45,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,55; 41,95</t>
+          <t>32,5; 41,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,3; 50,92</t>
+          <t>43,16; 51,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>46,27; 56,19</t>
+          <t>46,8; 56,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,07; 66,32</t>
+          <t>56,07; 65,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>50,01; 59,04</t>
+          <t>49,7; 59,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52,66; 58,69</t>
+          <t>52,59; 59,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43,35; 50,47</t>
+          <t>43,53; 50,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,63; 54,38</t>
+          <t>47,18; 54,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,28; 49,19</t>
+          <t>42,29; 49,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,8; 53,83</t>
+          <t>48,54; 53,87</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,99; 58,07</t>
+          <t>46,76; 58,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>66,4; 77,11</t>
+          <t>65,49; 76,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>51,66; 62,34</t>
+          <t>51,24; 62,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,81; 61,42</t>
+          <t>53,28; 61,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,92; 76,81</t>
+          <t>67,51; 76,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,78; 81,24</t>
+          <t>71,9; 80,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>64,48; 74,44</t>
+          <t>65,38; 75,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>70,4; 92,78</t>
+          <t>70,28; 92,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,29; 66,61</t>
+          <t>59,5; 66,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>70,82; 77,77</t>
+          <t>70,54; 77,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>60,24; 67,61</t>
+          <t>60,13; 67,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>63,82; 87,11</t>
+          <t>63,79; 84,5</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>62,78; 75,33</t>
+          <t>62,64; 75,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,92; 86,32</t>
+          <t>76,6; 86,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68,98; 78,96</t>
+          <t>67,93; 78,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>70,07; 78,81</t>
+          <t>70,67; 78,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>76,03; 84,7</t>
+          <t>75,75; 84,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,71; 92,98</t>
+          <t>86,3; 92,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>75,76; 85,28</t>
+          <t>76,13; 85,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>80,6; 85,76</t>
+          <t>80,64; 85,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>72,43; 79,72</t>
+          <t>72,57; 79,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>83,93; 89,66</t>
+          <t>83,9; 89,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>74,55; 81,42</t>
+          <t>74,52; 81,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>77,64; 82,42</t>
+          <t>77,47; 82,15</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,38; 21,16</t>
+          <t>18,39; 21,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>22,79; 25,83</t>
+          <t>22,97; 25,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,38; 25,38</t>
+          <t>22,51; 25,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23,66; 33,4</t>
+          <t>24,15; 33,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,92; 35,19</t>
+          <t>31,94; 35,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,14; 40,32</t>
+          <t>37,1; 40,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,38; 37,88</t>
+          <t>34,45; 37,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>45,14; 58,64</t>
+          <t>45,36; 58,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,96</t>
+          <t>25,53; 27,87</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30,53; 32,86</t>
+          <t>30,5; 32,73</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>28,96; 31,24</t>
+          <t>28,93; 31,19</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>36,21; 45,64</t>
+          <t>36,37; 46,04</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dos o más enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11533</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13262</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15525</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>46589</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36606</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>42324</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37981</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>61139</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>48139</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>55586</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>53506</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>107728</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5979; 19689</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7462; 21850</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8811; 23831</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26540; 72021</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27099; 48148</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31846; 57023</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28836; 52000</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42956; 82794</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36567; 62250</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41232; 70139</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>40643; 68406</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>81031; 140124</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32243</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48125</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>35542</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47712</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>92644</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>69950</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>68011</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>170213</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>124887</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>118075</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>103554</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>217925</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22327; 45189</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35587; 62901</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25111; 50032</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33422; 64902</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>75962; 112308</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>54965; 88224</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>53845; 84398</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>109366; 300670</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>103038; 146314</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>99190; 140017</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>86380; 124366</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>151537; 393685</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61219</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>68516</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>61928</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>78881</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>128254</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>165608</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>108539</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>150508</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>189473</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>234124</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>170467</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>229389</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>47457; 77479</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>53827; 86049</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47170; 78713</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>63858; 97280</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>108155; 149087</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>144223; 190614</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>91530; 127427</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>116081; 174184</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>163886; 215076</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>206678; 265714</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>144312; 194363</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>191481; 256783</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>81754</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>100942</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>140725</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>196233</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>149739</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>203991</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>206220</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>296087</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>231493</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>304933</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>346945</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>492320</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>65553; 100208</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83454; 122902</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>120508; 163874</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>87630; 280567</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>130538; 171419</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>178348; 227345</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>181246; 231886</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>249847; 320786</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>204489; 260156</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>270890; 335219</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>316125; 381451</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>270835; 593493</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>162410</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>174516</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>176302</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>263495</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>208655</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>273084</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>270545</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>306422</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>371065</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>447600</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>446847</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>569917</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>143325; 181703</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>152720; 194913</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>155316; 200365</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>242248; 287442</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>189051; 227501</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>251097; 294028</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>246914; 295020</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>288131; 324198</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>344206; 400259</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>413883; 477967</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>412249; 481478</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>538342; 597469</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>153139</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>222262</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>189962</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>210878</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>247499</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>271529</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>263829</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>492429</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>400638</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>493791</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>453792</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>703307</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>136803; 170510</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>202864; 237018</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>171318; 208864</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>196176; 225004</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>231522; 262486</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>254540; 286270</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>246964; 283396</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>427535; 560085</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>378152; 423815</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>468242; 515783</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>428160; 479023</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>622963; 825125</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>145685</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>205230</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>189623</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>210891</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>268963</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>350092</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>324656</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>355172</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>414649</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>555322</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>514279</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>566063</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>131463; 157536</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>191374; 216862</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>174576; 201091</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>199839; 222888</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>252925; 283153</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>335688; 360829</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>304647; 340969</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>343390; 366168</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>394643; 434219</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>535948; 572659</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>489709; 536404</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>548962; 582076</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1137</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2774</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>647983</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>832854</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>809608</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1054679</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1132361</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1376577</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1279781</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1831969</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1780344</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2209431</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2089390</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2886648</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>602418; 688582</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>787129; 888717</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>764151; 859191</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>835717; 1156801</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1079246; 1194125</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1320215; 1442583</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1220979; 1338743</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1683891; 2167780</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1699278; 1855089</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2130636; 2286226</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2007492; 2164548</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2608595; 3302182</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>